--- a/Fin Buff Calc.xlsx
+++ b/Fin Buff Calc.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\JULIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2549143-9063-4D36-9D3B-DF29D8F494EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BEAD12-58E2-4FE3-9145-208D39FA6BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="435" windowWidth="17370" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3465" windowWidth="13455" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>649675.13</v>
+        <v>253317.02</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12">
-        <v>149611.31</v>
+        <v>100345.34</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.2302863432682116</v>
+        <v>0.39612553471535389</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="D8" s="22">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>22441.696499999998</v>
+        <v>20069.067999999999</v>
       </c>
       <c r="E8" s="21">
         <f>D8/120</f>
-        <v>187.01413749999998</v>
+        <v>167.24223333333333</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="D9" s="14">
         <f>D8*1.5</f>
-        <v>33662.544750000001</v>
+        <v>30103.601999999999</v>
       </c>
       <c r="E9" s="13">
         <f>D9/120</f>
-        <v>280.52120625000003</v>
+        <v>250.86335</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
@@ -1360,12 +1360,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077032FF824D2AE488462F1841EBA28CC" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a58bd07298e53f370e97470010a13c95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1479,6 +1473,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
   <ds:schemaRefs>
@@ -1488,21 +1488,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73036319-82EC-4CF4-9D1B-9B71D51BB86A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F063A7C-61AB-479C-A1E5-92DE09B7F3E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1516,4 +1501,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73036319-82EC-4CF4-9D1B-9B71D51BB86A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Fin Buff Calc.xlsx
+++ b/Fin Buff Calc.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\JULIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\A055LJG\MIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BEAD12-58E2-4FE3-9145-208D39FA6BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAA65C-D3AA-4E81-AF0C-43FC0EE08938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3465" windowWidth="13455" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>253317.02</v>
+        <v>278728.21000000002</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12">
-        <v>100345.34</v>
+        <v>75322.320000000007</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.39612553471535389</v>
+        <v>0.27023572533257401</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="D8" s="22">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>20069.067999999999</v>
+        <v>11298.348</v>
       </c>
       <c r="E8" s="21">
         <f>D8/120</f>
-        <v>167.24223333333333</v>
+        <v>94.152900000000002</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="D9" s="14">
         <f>D8*1.5</f>
-        <v>30103.601999999999</v>
+        <v>16947.522000000001</v>
       </c>
       <c r="E9" s="13">
         <f>D9/120</f>
-        <v>250.86335</v>
+        <v>141.22935000000001</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
